--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>スタートボタン押す</t>
     <rPh sb="7" eb="8">
@@ -775,6 +775,32 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夕方の行動</t>
+    <rPh sb="0" eb="2">
+      <t>ユウガタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>生存者：処刑する人を選んでください。</t>
+    <rPh sb="0" eb="3">
+      <t>セイゾンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショケイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>エラ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1138,20 +1164,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1165,7 +1191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1193,7 +1219,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>7</v>
       </c>
@@ -1204,7 +1230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1241,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -1226,7 +1252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H8" t="s">
         <v>16</v>
       </c>
@@ -1234,239 +1260,279 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="L14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C68" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1495,7 +1561,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="概要" sheetId="1" r:id="rId1"/>
+    <sheet name="サーバとクライアント（端末）のやり取り" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="GamePhase" localSheetId="1">'サーバとクライアント（端末）のやり取り'!$H$2:$H$20</definedName>
+    <definedName name="GetInfo" localSheetId="1">'サーバとクライアント（端末）のやり取り'!$J$2:$J$20</definedName>
+    <definedName name="output" localSheetId="1">'サーバとクライアント（端末）のやり取り'!$K$2:$K$20</definedName>
+    <definedName name="PostInfo" localSheetId="1">'サーバとクライアント（端末）のやり取り'!$I$2:$I$20</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <t>スタートボタン押す</t>
     <rPh sb="7" eb="8">
@@ -802,6 +808,266 @@
     <rPh sb="10" eb="11">
       <t>エラ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム開始前</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームフェーズ</t>
+  </si>
+  <si>
+    <t>ゲームフェーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クライアント（端末）</t>
+    <rPh sb="7" eb="9">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム開始（0日目夜）</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム勝敗チェック</t>
+    <rPh sb="3" eb="5">
+      <t>ショウハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>朝</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夕方</t>
+    <rPh sb="0" eb="2">
+      <t>ユウガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム結果</t>
+    <rPh sb="3" eb="5">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>送受信</t>
+    <rPh sb="0" eb="3">
+      <t>ソウジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加者情報</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームフェーズ情報</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>描画候補</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームフェーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム日数</t>
+    <rPh sb="3" eb="5">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム時間</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイマー</t>
+  </si>
+  <si>
+    <t>タイマー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力情報</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームメッセージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←</t>
+  </si>
+  <si>
+    <t>受信情報候補</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送信情報候補</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照：サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照：端末</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加者情報.プレイヤー名</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤー名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加者リスト（ul）</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択プレイヤー</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[ボタン]ゲーム終了</t>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>[ボタン]ゲームスタート</t>
+  </si>
+  <si>
+    <t>[ボタン]ゲームスタート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームフェーズ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -809,7 +1075,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -830,6 +1096,15 @@
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -856,18 +1131,51 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -875,6 +1183,25 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:F20" totalsRowShown="0">
+  <autoFilter ref="A1:F20"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ゲームフェーズ"/>
+    <tableColumn id="2" name="サーバー" dataDxfId="4"/>
+    <tableColumn id="3" name="送受信" dataDxfId="3"/>
+    <tableColumn id="4" name="クライアント（端末）" dataDxfId="2"/>
+    <tableColumn id="5" name="参照：サーバ" dataDxfId="1">
+      <calculatedColumnFormula>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="参照：端末" dataDxfId="0">
+      <calculatedColumnFormula>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1166,18 +1493,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1191,7 +1518,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1205,7 +1532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1219,7 +1546,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>7</v>
       </c>
@@ -1230,7 +1557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E6" t="s">
         <v>8</v>
       </c>
@@ -1241,7 +1568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
         <v>9</v>
       </c>
@@ -1252,7 +1579,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H8" t="s">
         <v>16</v>
       </c>
@@ -1260,277 +1587,277 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="M11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D51" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D52" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D56" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D57" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C64" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D65" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D69" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D70" t="s">
         <v>51</v>
       </c>
@@ -1544,14 +1871,439 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v>PostInfo</v>
+      </c>
+      <c r="F2" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v>output</v>
+      </c>
+      <c r="H2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>90</v>
+      </c>
+      <c r="K2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v>GetInfo</v>
+      </c>
+      <c r="F3" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v>PostInfo</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v>GetInfo</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v>PostInfo</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v>PostInfo</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v>output</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v>GetInfo</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v>PostInfo</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+      <c r="H8" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+      <c r="I9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+      <c r="I10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="2" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
+        <v/>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A20">
+      <formula1>GamePhase</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20">
+      <formula1>"→,←"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20">
+      <formula1>INDIRECT($E2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20">
+      <formula1>INDIRECT($F2)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1561,7 +2313,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21107"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="11_B531175AD1CDEC90A7540892FC1A99EF9B95CFB5" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A884D8F7-8A09-4943-85E7-6DAA9EB52737}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
     <sheet name="サーバとクライアント（端末）のやり取り" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="処理まとめ" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="GamePhase" localSheetId="1">'サーバとクライアント（端末）のやり取り'!$H$2:$H$20</definedName>
@@ -17,12 +18,19 @@
     <definedName name="output" localSheetId="1">'サーバとクライアント（端末）のやり取り'!$K$2:$K$20</definedName>
     <definedName name="PostInfo" localSheetId="1">'サーバとクライアント（端末）のやり取り'!$I$2:$I$20</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179020"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="121">
   <si>
     <t>スタートボタン押す</t>
     <rPh sb="7" eb="8">
@@ -44,6 +52,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>→朝の行動が始まる</t>
+    <rPh sb="1" eb="2">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜の行動</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2日目が始まる</t>
+    <rPh sb="1" eb="3">
+      <t>カメ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>初日の行動とは？</t>
     <rPh sb="0" eb="2">
       <t>ショニチ</t>
@@ -54,6 +95,39 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>朝の行動とは？</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>夜の行動とは？</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人狼の被害者を発表</t>
+    <rPh sb="0" eb="2">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒガイシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハッピョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>占い師は占う。</t>
     <rPh sb="0" eb="1">
       <t>ウラナ</t>
@@ -67,29 +141,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>→朝の行動が始まる</t>
-    <rPh sb="1" eb="2">
-      <t>アサ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>朝の行動とは？</t>
-    <rPh sb="0" eb="1">
-      <t>アサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>タイマーが始まる</t>
     <rPh sb="5" eb="6">
       <t>ハジ</t>
@@ -97,6 +148,32 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>村人・霊媒師：怪しい人を選択</t>
+    <rPh sb="0" eb="2">
+      <t>ムラビト</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>レイバイシ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム終了チェック</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>タイマーが終わると</t>
     <rPh sb="5" eb="6">
       <t>オ</t>
@@ -104,6 +181,59 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>占い師：占う</t>
+    <rPh sb="0" eb="1">
+      <t>ウラナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウラナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人狼陣営が村人陣営と同数以上の場合結果発表。それ以外の場合はループに戻る。</t>
+    <rPh sb="0" eb="2">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ムラビト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジンエイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ドウスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハッピョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>→処刑者の投票</t>
     <rPh sb="1" eb="3">
       <t>ショケイ</t>
@@ -117,6 +247,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>狩人：守る人を選ぶ</t>
+    <rPh sb="0" eb="2">
+      <t>カリュウド</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特定の役職の朝のイベント</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>処刑者が決定</t>
     <rPh sb="0" eb="2">
       <t>ショケイ</t>
@@ -130,55 +289,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>夜の行動</t>
-    <rPh sb="0" eb="1">
-      <t>ヨル</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>夜の行動とは？</t>
-    <rPh sb="0" eb="1">
-      <t>ヨル</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウドウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>占い師：占う</t>
-    <rPh sb="0" eb="1">
-      <t>ウラナ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウラナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>狩人：守る人を選ぶ</t>
-    <rPh sb="0" eb="2">
-      <t>カリュウド</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>マモ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>人狼：食べる人を選ぶ</t>
     <rPh sb="0" eb="2">
       <t>ジンロウ</t>
@@ -195,21 +305,21 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>村人・霊媒師：怪しい人を選択</t>
-    <rPh sb="0" eb="2">
-      <t>ムラビト</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>レイバイシ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アヤ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>センタク</t>
+    <t>占い師は占い結果を見れる</t>
+    <rPh sb="0" eb="1">
+      <t>ウラナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウラナ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -224,48 +334,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2日目が始まる</t>
-    <rPh sb="1" eb="3">
-      <t>カメ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人狼の被害者を発表</t>
-    <rPh sb="0" eb="2">
-      <t>ジンロウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ヒガイシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハッピョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>占い師は占い結果を見れる</t>
-    <rPh sb="0" eb="1">
-      <t>ウラナ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウラナ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>霊媒師も初日の処刑した人の役職がわかる</t>
     <rPh sb="0" eb="3">
       <t>レイバイシ</t>
@@ -285,53 +353,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲーム終了チェック</t>
-    <rPh sb="3" eb="5">
-      <t>シュウリョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人狼陣営が村人陣営と同数以上の場合結果発表。それ以外の場合はループに戻る。</t>
-    <rPh sb="0" eb="2">
-      <t>ジンロウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ムラビト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジンエイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ドウスウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ハッピョウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Server</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -346,7 +367,13 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Game</t>
+    <t>アクセスされたらUUIDをクライアントに振ってローカルストレージに保存させる</t>
+    <rPh sb="20" eb="21">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ホゾン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -363,6 +390,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ゲームスタートを押すとゲームスタート準備完了フラグが有効なプレイヤーでゲームスタート</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Game</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>各プレイヤーインスタンスの夜の行動を呼ぶ</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -379,6 +426,38 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>生きているプレイヤーの行動可能フラグを有効にする</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ユウコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※行動可能フラグが有効になっているプレイヤーはそういう表示にする</t>
+    <rPh sb="1" eb="3">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>全プレイヤーの夜の行動が完了したら次へ進む</t>
     <rPh sb="0" eb="1">
       <t>ゼン</t>
@@ -401,6 +480,20 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ゲームクラスの日数を加算</t>
+    <rPh sb="7" eb="9">
+      <t>ニッスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>各プレイヤーインスタンスの朝の行動を呼ぶ</t>
     <rPh sb="0" eb="1">
       <t>カク</t>
@@ -417,34 +510,42 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲームクラスの日数を加算</t>
-    <rPh sb="7" eb="9">
-      <t>ニッスウ</t>
+    <t>ゲームクラスのタイマーをスタート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイマーが終わったら処刑者を選ぶ</t>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>カサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲームクラスのタイマーをスタート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特定の役職の朝のイベント</t>
+      <t>ショケイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全員が選び終わったら夜へ進む</t>
     <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヤクショク</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Result</t>
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スス</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -529,22 +630,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲームスタートを押すとゲームスタート準備完了フラグが有効なプレイヤーでゲームスタート</t>
-    <rPh sb="8" eb="9">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジュンビ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Player</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -629,6 +714,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>選べるようにする</t>
+    <rPh sb="0" eb="1">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバー側の選択可能フラグが有効の場合、選べる</t>
+    <rPh sb="4" eb="5">
+      <t>ガワ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>選ぶ</t>
     <rPh sb="0" eb="1">
       <t>エラ</t>
@@ -636,35 +750,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>選べるようにする</t>
-    <rPh sb="0" eb="1">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サーバー側の選択可能フラグが有効の場合、選べる</t>
-    <rPh sb="4" eb="5">
-      <t>ガワ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>自分の役職と選んだプレイヤーをサーバーに送信</t>
     <rPh sb="0" eb="2">
       <t>ジブン</t>
@@ -694,38 +779,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>生きているプレイヤーの行動可能フラグを有効にする</t>
-    <rPh sb="0" eb="1">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ユウコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※行動可能フラグが有効になっているプレイヤーはそういう表示にする</t>
-    <rPh sb="1" eb="3">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>朝の行動</t>
     <rPh sb="0" eb="1">
       <t>アサ</t>
@@ -736,55 +789,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>アクセスされたらUUIDをクライアントに振ってローカルストレージに保存させる</t>
-    <rPh sb="20" eb="21">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Game</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイマーが終わったら処刑者を選ぶ</t>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ショケイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シャ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全員が選び終わったら夜へ進む</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヨル</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>夕方の行動</t>
     <rPh sb="0" eb="2">
       <t>ユウガタ</t>
@@ -811,6 +815,88 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>ゲームフェーズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送受信</t>
+    <rPh sb="0" eb="3">
+      <t>ソウジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クライアント（端末）</t>
+    <rPh sb="7" eb="9">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照：サーバ</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参照：端末</t>
+    <rPh sb="0" eb="2">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンマツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームフェーズ情報</t>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>送信情報候補</t>
+    <rPh sb="0" eb="2">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受信情報候補</t>
+    <rPh sb="0" eb="2">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>描画候補</t>
+    <rPh sb="0" eb="2">
+      <t>ビョウガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ゲーム開始前</t>
     <rPh sb="3" eb="5">
       <t>カイシ</t>
@@ -821,16 +907,45 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲームフェーズ</t>
-  </si>
-  <si>
-    <t>ゲームフェーズ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クライアント（端末）</t>
-    <rPh sb="7" eb="9">
-      <t>タンマツ</t>
+    <t>参加者情報</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>参加者リスト（ul）</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加者情報.プレイヤー名</t>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←</t>
+  </si>
+  <si>
+    <t>プレイヤー名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -851,6 +966,96 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>プレイヤー情報</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>入力情報</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームフェーズ</t>
+  </si>
+  <si>
+    <t>[ボタン]ゲームスタート</t>
+  </si>
+  <si>
+    <t>朝</t>
+    <rPh sb="0" eb="1">
+      <t>アサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲームメッセージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム開始（0日目夜）</t>
+  </si>
+  <si>
+    <t>ボタン選択可能フラグ</t>
+  </si>
+  <si>
+    <t>ボタン活性設定</t>
+  </si>
+  <si>
+    <t>夕方</t>
+    <rPh sb="0" eb="2">
+      <t>ユウガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム日数</t>
+    <rPh sb="3" eb="5">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイマー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>参加者情報.プレイヤー名</t>
+  </si>
+  <si>
+    <t>選択プレイヤー</t>
+  </si>
+  <si>
+    <t>夜</t>
+    <rPh sb="0" eb="1">
+      <t>ヨル</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゲーム時間</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>朝</t>
+  </si>
+  <si>
+    <t>プレイヤー情報</t>
+  </si>
+  <si>
+    <t>テキスト（夜の行動結果）</t>
+  </si>
+  <si>
     <t>ゲーム勝敗チェック</t>
     <rPh sb="3" eb="5">
       <t>ショウハイ</t>
@@ -858,25 +1063,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>朝</t>
-    <rPh sb="0" eb="1">
-      <t>アサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>夕方</t>
-    <rPh sb="0" eb="2">
-      <t>ユウガタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>夜</t>
-    <rPh sb="0" eb="1">
-      <t>ヨル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <t>テキスト（処刑人投票結果）</t>
+  </si>
+  <si>
+    <t>タイマー</t>
   </si>
   <si>
     <t>ゲーム結果</t>
@@ -886,166 +1076,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サーバー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>→</t>
-  </si>
-  <si>
-    <t>送受信</t>
-    <rPh sb="0" eb="3">
-      <t>ソウジュシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>参加者情報</t>
-    <rPh sb="0" eb="3">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲームフェーズ情報</t>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>描画候補</t>
-    <rPh sb="0" eb="2">
-      <t>ビョウガ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウホ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレイヤー情報</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲームフェーズ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲーム日数</t>
-    <rPh sb="3" eb="5">
-      <t>ニッスウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲーム時間</t>
-    <rPh sb="3" eb="5">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイマー</t>
-  </si>
-  <si>
-    <t>タイマー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>入力情報</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲームメッセージ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←</t>
-  </si>
-  <si>
-    <t>受信情報候補</t>
-    <rPh sb="0" eb="2">
-      <t>ジュシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウホ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>送信情報候補</t>
-    <rPh sb="0" eb="2">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>コウホ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>参照：サーバ</t>
-    <rPh sb="0" eb="2">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>参照：端末</t>
-    <rPh sb="0" eb="2">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>タンマツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>参加者情報.プレイヤー名</t>
-    <rPh sb="0" eb="3">
-      <t>サンカシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレイヤー名</t>
-    <rPh sb="5" eb="6">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>参加者リスト（ul）</t>
-    <rPh sb="0" eb="3">
-      <t>サンカシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>選択プレイヤー</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
@@ -1053,6 +1083,25 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>テキスト（人狼の被害者）</t>
+  </si>
+  <si>
+    <t>ボタン活性化</t>
+  </si>
+  <si>
+    <t>夕方</t>
+  </si>
+  <si>
+    <t>[ボタン]ゲームスタート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テキスト（ゲーム結果）</t>
+  </si>
+  <si>
+    <t>夜</t>
+  </si>
+  <si>
     <t>[ボタン]ゲーム終了</t>
     <rPh sb="8" eb="10">
       <t>シュウリョウ</t>
@@ -1060,22 +1109,78 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>[ボタン]ゲームスタート</t>
-  </si>
-  <si>
-    <t>[ボタン]ゲームスタート</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ゲームフェーズ</t>
-    <phoneticPr fontId="2"/>
+    <t>ゲーム結果</t>
+  </si>
+  <si>
+    <t>ゲーム勝敗チェック</t>
+  </si>
+  <si>
+    <t>サーバ（毎秒処理）</t>
+  </si>
+  <si>
+    <t>端末（描画・入力処理）</t>
+  </si>
+  <si>
+    <t>ゲーム開始前</t>
+  </si>
+  <si>
+    <t>【画面描画】
+・初期はすべて表示
+・表示後は参加者の増減により再描画
+【入力】
+・プレイヤー名入力
+・[参加]押下（サーバへプレイヤー名を送信）
+・[ゲームスタート]押下（最初に入室端末のみ？）</t>
+  </si>
+  <si>
+    <t>ゲームスタート時
+（0日目夜）</t>
+  </si>
+  <si>
+    <t>【画面描画】
+占い師の場合
+・役職者による選択
+他プレイヤー
+・テキスト「入力受付テストです。誰か一人を選んでください。」
+【入力】
+・[プレイヤー]（サーバへ誰が誰を選んだかIDで送信）</t>
+  </si>
+  <si>
+    <t>【画面描画】
+・人狼の被害者表示
+占い師、霊媒師の場合
+・対象者の占い結果を追加で表示
+・「○分間の間、誰が人狼か話し合いましょう」
+・タイマー表示
+【入力】
+なし</t>
+  </si>
+  <si>
+    <t>【画面描画】
+・ゲームインフォメーション表示
+・[プレイヤー]活性化
+・選択完了プレイヤーの色を変更
+【入力】
+・[プレイヤー]（サーバへ誰が誰を選択したかIDで送信）</t>
+  </si>
+  <si>
+    <t>【画面描画】
+・処刑者の発表
+・処刑プレイヤーの色を変更
+・[プレイヤー]活性化
+・選択完了プレイヤーの色を変更
+【入力】_x000D_
+・[プレイヤー]（サーバへ誰が誰を選択したかIDで送信）</t>
+  </si>
+  <si>
+    <t>ゲーム終了</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1131,7 +1236,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1152,6 +1257,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,22 +1292,25 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:F20" totalsRowShown="0">
-  <autoFilter ref="A1:F20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:F20" totalsRowShown="0">
+  <autoFilter ref="A1:F20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ゲームフェーズ"/>
-    <tableColumn id="2" name="サーバー" dataDxfId="4"/>
-    <tableColumn id="3" name="送受信" dataDxfId="3"/>
-    <tableColumn id="4" name="クライアント（端末）" dataDxfId="2"/>
-    <tableColumn id="5" name="参照：サーバ" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ゲームフェーズ"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="サーバー" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="送受信" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="クライアント（端末）" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参照：サーバ" dataDxfId="1">
       <calculatedColumnFormula>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="参照：端末" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="参照：端末" dataDxfId="0">
       <calculatedColumnFormula>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1205,7 +1319,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1247,7 +1361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1280,9 +1394,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1315,6 +1446,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1490,376 +1638,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="L9" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+    </row>
+    <row r="10" spans="1:13">
+      <c r="L10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="M11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="B28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="B29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="C41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="C42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="D49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="C53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="D54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="D56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="C60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="L14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+    <row r="61" spans="2:4">
+      <c r="C61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="C64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="D65" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="D67" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="D69" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+    <row r="70" spans="3:4">
+      <c r="D70" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D49" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D51" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D52" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C55" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="D57" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C60" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C61" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="C64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D69" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D70" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1870,14 +2018,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
@@ -1890,50 +2038,50 @@
     <col min="10" max="11" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
@@ -1944,30 +2092,30 @@
         <v>output</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" t="s">
-        <v>90</v>
-      </c>
       <c r="K2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
@@ -1978,30 +2126,30 @@
         <v>PostInfo</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="E4" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
@@ -2012,27 +2160,27 @@
         <v>PostInfo</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="K4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>67</v>
-      </c>
       <c r="B5" s="5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
@@ -2043,27 +2191,27 @@
         <v>output</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>90</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E6" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
@@ -2074,125 +2222,212 @@
         <v>PostInfo</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B7" s="5"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="E7" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
-        <v/>
+        <v>PostInfo</v>
       </c>
       <c r="F7" s="3" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
-        <v/>
+        <v>output</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E8" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
-        <v/>
+        <v>PostInfo</v>
       </c>
       <c r="F8" s="3" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
-        <v/>
+        <v>output</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B9" s="5"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="E9" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
-        <v/>
+        <v>PostInfo</v>
       </c>
       <c r="F9" s="3" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
-        <v/>
+        <v>output</v>
       </c>
       <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="K9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B10" s="5"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="5"/>
       <c r="E10" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
-        <v/>
+        <v>GetInfo</v>
       </c>
       <c r="F10" s="3" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
-        <v/>
+        <v>PostInfo</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="5"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>98</v>
+      </c>
       <c r="E11" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
-        <v/>
+        <v>PostInfo</v>
       </c>
       <c r="F11" s="3" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
-        <v/>
+        <v>output</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B12" s="5"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="5"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="E12" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
-        <v/>
+        <v>PostInfo</v>
       </c>
       <c r="F12" s="3" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B13" s="5"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
+        <v>output</v>
+      </c>
+      <c r="I12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="E13" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
-        <v/>
+        <v>GetInfo</v>
       </c>
       <c r="F13" s="3" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>PostInfo</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>110</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="5"/>
@@ -2205,46 +2440,73 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="E15" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
-        <v/>
+        <v>PostInfo</v>
       </c>
       <c r="F15" s="3" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B16" s="5"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
+        <v>output</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>99</v>
+      </c>
       <c r="E16" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
-        <v/>
+        <v>PostInfo</v>
       </c>
       <c r="F16" s="3" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="5"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
+        <v>output</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="E17" s="2" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</f>
-        <v/>
+        <v>PostInfo</v>
       </c>
       <c r="F17" s="3" t="str">
         <f>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+        <v>output</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="B18" s="5"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
@@ -2257,7 +2519,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6">
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
@@ -2270,7 +2532,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6">
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
@@ -2285,18 +2547,36 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A20">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7 B17:B20 B14:B15" xr:uid="{062D8D1B-8118-48B6-9FDE-20426CB4A455}">
+      <formula1>INDIRECT($E2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{46AD01AC-7B97-484B-9519-5D10C775F8E8}">
+      <formula1>INDIRECT($E14)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D17:D20 D14:D15" xr:uid="{746FF00D-ADBB-46AD-830A-0EC0B9F73AC1}">
+      <formula1>INDIRECT($F2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{37155B8E-B03A-44AD-976A-136EF7A23872}">
+      <formula1>INDIRECT($F14)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{1D4C2D5F-44C0-4146-BA87-C9721CE7D7C5}">
+      <formula1>INDIRECT($E9)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{EE3B42C2-3BAC-4774-B987-41FFA65C2CD5}">
+      <formula1>INDIRECT($E15)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12" xr:uid="{9B5EE5E3-E9C6-43AE-867D-6849045AA514}">
+      <formula1>INDIRECT($F9)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13" xr:uid="{DC6E8612-5684-419F-9F83-D09536E39C2F}">
+      <formula1>INDIRECT($F15)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13 A14:A20" xr:uid="{C7A91332-EF42-4121-B205-A41B7B85C0EF}">
       <formula1>GamePhase</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13 C14:C20" xr:uid="{8E756A61-44C8-4B3A-A506-753A16EA3899}">
       <formula1>"→,←"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B20">
-      <formula1>INDIRECT($E2)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D20">
-      <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2308,13 +2588,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="51.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="133.5" customHeight="1">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="135">
+      <c r="A3" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="135">
+      <c r="A4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="94.5">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="108">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="108">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/設計書.xlsx
+++ b/設計書.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21107"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="90" documentId="11_B531175AD1CDEC90A7540892FC1A99EF9B95CFB5" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{A884D8F7-8A09-4943-85E7-6DAA9EB52737}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="75" windowWidth="28035" windowHeight="12570" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <definedName name="output" localSheetId="1">'サーバとクライアント（端末）のやり取り'!$K$2:$K$20</definedName>
     <definedName name="PostInfo" localSheetId="1">'サーバとクライアント（端末）のやり取り'!$I$2:$I$20</definedName>
   </definedNames>
-  <calcPr calcId="179020"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="147">
   <si>
     <t>スタートボタン押す</t>
     <rPh sb="7" eb="8">
@@ -1124,63 +1123,557 @@
     <t>ゲーム開始前</t>
   </si>
   <si>
+    <t>ゲームスタート時
+（0日目夜）</t>
+  </si>
+  <si>
+    <t>ゲーム終了</t>
+  </si>
+  <si>
+    <t>※１　役職者の選択イベント</t>
+    <rPh sb="3" eb="6">
+      <t>ヤクショクシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択した人物にどの処理を行うか、各役職者に応じて分岐させる</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ブンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>村人</t>
+    <rPh sb="0" eb="2">
+      <t>ムラビト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>役職</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択時メッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処理内容</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人狼だと思う人物を選択してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>占い師</t>
+    <rPh sb="0" eb="1">
+      <t>ウラナ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人狼かどうか知りたい人物を選んでください。</t>
+    <rPh sb="0" eb="2">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジンブツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択したプレイヤーの役職が人狼か否かを朝に表示</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>霊媒師</t>
+    <rPh sb="0" eb="3">
+      <t>レイバイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>処刑したプレイヤーの役職が人狼か否かを朝に表示</t>
+    <rPh sb="0" eb="2">
+      <t>ショケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イナ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人狼</t>
+    <rPh sb="0" eb="2">
+      <t>ジンロウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>狩人</t>
+    <rPh sb="0" eb="2">
+      <t>カリウド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人狼から守る人を選択してください。</t>
+    <rPh sb="0" eb="2">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食べる人を選択してください。</t>
+    <rPh sb="0" eb="1">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択したプレイヤーが狩人に選ばれていない場合、死亡状態に設定
+（0日目夜は村人と同じ処理）</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カリウド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シボウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ヨル</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ムラビト</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択したプレイヤーが人狼に選ばれている場合、処理を無効化
+（0日目夜は村人と同じ処理）</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ムコウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【画面描画】
+・テキスト表示「処刑者」
+・[プレイヤー]活性化
+・表示色設定[生存プレイヤー→通常]
+・表示色設定[処刑プレイヤー→死亡]
+・イベント「役職者の選択イベント」※１
+・表示色設定[選択完了プレイヤー→選択完了]
+・[プレイヤー]非活性化
+【入力】_x000D_
+・[プレイヤー]（サーバへ誰が誰を選択したかIDで送信）</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>ヒョウジショク</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="121" eb="122">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【画面描画】
+・テキスト表示「処刑者選択指示」
+・[プレイヤー]活性化
+・表示色設定[選択完了プレイヤー→選択完了]
+・[プレイヤー]非活性化
+【入力】
+・[プレイヤー]（サーバへ誰が誰を選択したかIDで送信）</t>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ショケイシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>シジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【画面描画】
+・テキスト表示「ゲーム終了案内」
+・テキスト表示「今回のゲーム結果」
+・テキスト表示「今までのゲーム結果統計」
+・各プレイヤー[役職]表示
+【入力】
+・[ゲームスタート]押下（最初に入室端末のみ？）</t>
+    <rPh sb="18" eb="20">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>トウケイ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【画面描画】
+・テキスト表示　夜明け案内
+・テキスト表示　人狼の被害者
+・表示色設定　生存プレイヤー→通常
+・表示色設定　人狼被害者プレイヤー→死亡
+～朝に個別イベントが発生する役職者の場合～
+・テキスト表示「処理結果」
+・テキスト表示「○分間の間、誰が人狼か話し合いましょう」
+・タイマー表示
+【入力】
+なし</t>
+    <rPh sb="15" eb="17">
+      <t>ヨア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>アンナイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ジンロウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒガイ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="90" eb="93">
+      <t>ヤクショクシャ</t>
+    </rPh>
+    <rPh sb="103" eb="105">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="118" eb="120">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【画面描画】
+・[プレイヤー]活性化
+・イベント　役職者の選択イベント（※１）
+【入力】
+・[プレイヤー]押下（サーバへ誰が誰を選んだかIDで送信）</t>
+    <rPh sb="25" eb="28">
+      <t>ヤクショクシャ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>【画面描画】
 ・初期はすべて表示
 ・表示後は参加者の増減により再描画
+・設定　プレイヤー画像
 【入力】
-・プレイヤー名入力
-・[参加]押下（サーバへプレイヤー名を送信）
-・[ゲームスタート]押下（最初に入室端末のみ？）</t>
-  </si>
-  <si>
-    <t>ゲームスタート時
-（0日目夜）</t>
-  </si>
-  <si>
-    <t>【画面描画】
-占い師の場合
-・役職者による選択
-他プレイヤー
-・テキスト「入力受付テストです。誰か一人を選んでください。」
-【入力】
-・[プレイヤー]（サーバへ誰が誰を選んだかIDで送信）</t>
-  </si>
-  <si>
-    <t>【画面描画】
-・人狼の被害者表示
-占い師、霊媒師の場合
-・対象者の占い結果を追加で表示
-・「○分間の間、誰が人狼か話し合いましょう」
-・タイマー表示
-【入力】
+1-1.入力　プレイヤー名
+1-2.[参加]押下（サーバへプレイヤー名を送信）
+2.[ゲームスタート]押下（最初に入室端末のみ？）</t>
+    <rPh sb="36" eb="38">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【送信】
+・
+【受信】
+0.プレイヤー情報[ID]
+1.プレイヤー情報[ID, プレイヤー名]
+2.[ゲームスタート]</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【送信】
+・
+【受信】
+・プレイヤー情報[ID, 選択プレイヤーID]</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【送信】
+・
+【受信】
+・プレイヤー情報[ID, 選択プレイヤーID]</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【送信】
+・
+【受信】
+・[ゲームスタート]</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【送信】
+・タイマー情報
+【受信】
 なし</t>
-  </si>
-  <si>
-    <t>【画面描画】
-・ゲームインフォメーション表示
-・[プレイヤー]活性化
-・選択完了プレイヤーの色を変更
-【入力】
-・[プレイヤー]（サーバへ誰が誰を選択したかIDで送信）</t>
-  </si>
-  <si>
-    <t>【画面描画】
-・処刑者の発表
-・処刑プレイヤーの色を変更
-・[プレイヤー]活性化
-・選択完了プレイヤーの色を変更
-【入力】_x000D_
-・[プレイヤー]（サーバへ誰が誰を選択したかIDで送信）</t>
-  </si>
-  <si>
-    <t>ゲーム終了</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>【送信】
+・各プレイヤー情報[ID, 選択状態, 
+【受信】
+・プレイヤー情報[ID, 選択プレイヤーID]</t>
+    <rPh sb="1" eb="3">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,12 +1715,186 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1236,7 +1903,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1264,11 +1931,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1300,17 +2012,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="テーブル1" displayName="テーブル1" ref="A1:F20" totalsRowShown="0">
-  <autoFilter ref="A1:F20" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="テーブル1" displayName="テーブル1" ref="A1:F20" totalsRowShown="0">
+  <autoFilter ref="A1:F20"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ゲームフェーズ"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="サーバー" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="送受信" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="クライアント（端末）" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="参照：サーバ" dataDxfId="1">
+    <tableColumn id="1" name="ゲームフェーズ"/>
+    <tableColumn id="2" name="サーバー" dataDxfId="6"/>
+    <tableColumn id="3" name="送受信" dataDxfId="5"/>
+    <tableColumn id="4" name="クライアント（端末）" dataDxfId="4"/>
+    <tableColumn id="5" name="参照：サーバ" dataDxfId="3">
       <calculatedColumnFormula>IF(テーブル1[[#This Row],[送受信]]="→","PostInfo",IF(テーブル1[[#This Row],[送受信]]="←","GetInfo",""))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="参照：端末" dataDxfId="0">
+    <tableColumn id="6" name="参照：端末" dataDxfId="2">
       <calculatedColumnFormula>IF(テーブル1[[#This Row],[送受信]]="←","PostInfo",IF(テーブル1[[#This Row],[送受信]]="→","output",""))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1318,8 +2030,20 @@
 </table>
 </file>
 
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A1:C7" totalsRowShown="0">
+  <autoFilter ref="A1:C7"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="ゲームフェーズ"/>
+    <tableColumn id="2" name="サーバ（毎秒処理）" dataDxfId="1"/>
+    <tableColumn id="3" name="端末（描画・入力処理）" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1361,7 +2085,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1394,26 +2118,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1446,23 +2153,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1638,21 +2328,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M70"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1666,7 +2356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1680,7 +2370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1694,7 +2384,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +2395,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E6" t="s">
         <v>16</v>
       </c>
@@ -1716,7 +2406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="E7" t="s">
         <v>19</v>
       </c>
@@ -1727,7 +2417,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="H8" t="s">
         <v>22</v>
       </c>
@@ -1735,277 +2425,277 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="M11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="L14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B30" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B39" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B40" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B44" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D49" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D50" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D51" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D52" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D54" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D56" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D57" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C64" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="3:4">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="3:4">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="67" spans="3:4">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D67" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="68" spans="3:4">
+    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="69" spans="3:4">
+    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D69" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="3:4">
+    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
       <c r="D70" t="s">
         <v>56</v>
       </c>
@@ -2018,14 +2708,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" bestFit="1" customWidth="1"/>
@@ -2038,7 +2728,7 @@
     <col min="10" max="11" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>60</v>
       </c>
@@ -2070,7 +2760,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>70</v>
       </c>
@@ -2104,7 +2794,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -2138,7 +2828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -2169,7 +2859,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -2200,7 +2890,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -2231,7 +2921,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -2262,7 +2952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -2293,7 +2983,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>87</v>
       </c>
@@ -2321,7 +3011,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -2349,7 +3039,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>107</v>
       </c>
@@ -2374,7 +3064,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>107</v>
       </c>
@@ -2399,7 +3089,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>107</v>
       </c>
@@ -2424,7 +3114,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>110</v>
       </c>
@@ -2440,7 +3130,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -2462,7 +3152,7 @@
         <v>output</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2484,7 +3174,7 @@
         <v>output</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -2506,7 +3196,7 @@
         <v>output</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="3"/>
       <c r="D18" s="5"/>
@@ -2519,7 +3209,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
       <c r="D19" s="5"/>
@@ -2532,7 +3222,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
       <c r="D20" s="5"/>
@@ -2548,34 +3238,34 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7 B17:B20 B14:B15" xr:uid="{062D8D1B-8118-48B6-9FDE-20426CB4A455}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B7 B17:B20 B14:B15">
       <formula1>INDIRECT($E2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16" xr:uid="{46AD01AC-7B97-484B-9519-5D10C775F8E8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
       <formula1>INDIRECT($E14)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D17:D20 D14:D15" xr:uid="{746FF00D-ADBB-46AD-830A-0EC0B9F73AC1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D7 D17:D20 D14:D15">
       <formula1>INDIRECT($F2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16" xr:uid="{37155B8E-B03A-44AD-976A-136EF7A23872}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D16">
       <formula1>INDIRECT($F14)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{1D4C2D5F-44C0-4146-BA87-C9721CE7D7C5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12">
       <formula1>INDIRECT($E9)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{EE3B42C2-3BAC-4774-B987-41FFA65C2CD5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13">
       <formula1>INDIRECT($E15)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12" xr:uid="{9B5EE5E3-E9C6-43AE-867D-6849045AA514}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D12">
       <formula1>INDIRECT($F9)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13" xr:uid="{DC6E8612-5684-419F-9F83-D09536E39C2F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13">
       <formula1>INDIRECT($F15)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13 A14:A20" xr:uid="{C7A91332-EF42-4121-B205-A41B7B85C0EF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13 A14:A20">
       <formula1>GamePhase</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13 C14:C20" xr:uid="{8E756A61-44C8-4B3A-A506-753A16EA3899}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13 C14:C20">
       <formula1>"→,←"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2588,21 +3278,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
-    <col min="3" max="3" width="51.75" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="56.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2613,56 +3306,154 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="133.5" customHeight="1">
+    <row r="2" spans="1:3" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>113</v>
       </c>
+      <c r="B2" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="C2" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="135">
-      <c r="A3" s="8" t="s">
-        <v>115</v>
+      <c r="B3" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="135">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="189" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>94</v>
       </c>
+      <c r="B4" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="C4" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="94.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>104</v>
       </c>
+      <c r="B5" s="8" t="s">
+        <v>146</v>
+      </c>
       <c r="C5" s="8" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="108">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>107</v>
       </c>
+      <c r="B6" s="8" t="s">
+        <v>143</v>
+      </c>
       <c r="C6" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="108" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="108">
-      <c r="A7" t="s">
+      <c r="B11" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>114</v>
+      <c r="C11" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>